--- a/protocolo.xlsx
+++ b/protocolo.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,87 +424,27 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20/07/2024</v>
+        <v>14/08/2024</v>
       </c>
       <c r="B2" t="str">
-        <v>Eduardo</v>
+        <v>Thiago</v>
       </c>
       <c r="C2" t="str">
-        <v>caroba24.3</v>
+        <v>correios-1408</v>
       </c>
       <c r="D2" t="str">
-        <v>0192-0450-1</v>
+        <v>0387-0269-9</v>
       </c>
       <c r="E2" t="str">
-        <v>asdasdasdas6</v>
+        <v>882007147378</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>20/07/2024</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Eduardo</v>
-      </c>
-      <c r="C3" t="str">
-        <v>caroba24.3</v>
-      </c>
-      <c r="D3" t="str">
-        <v>0192-0450-1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>asdasdasdas9</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>20/07/2024</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Eduardo</v>
-      </c>
-      <c r="C4" t="str">
-        <v>caroba24.3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>0192-0446-6</v>
-      </c>
-      <c r="E4" t="str">
-        <v>asdasdasdas9</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>20/07/2024</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Eduardo</v>
-      </c>
-      <c r="C5" t="str">
-        <v>caroba24.3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>0192-0432-1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>asdasdasdas10</v>
-      </c>
-      <c r="F5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/protocolo.xlsx
+++ b/protocolo.xlsx
@@ -397,54 +397,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Data</v>
+        <v>Nota Fiscal</v>
       </c>
       <c r="B1" t="str">
+        <v>Codigo</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Descricao</v>
+      </c>
+      <c r="D1" t="str">
+        <v>QuantidadeNF</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fisico</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Fornecimento</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H1" t="str">
         <v>Usuario</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Protocolo</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Codigo</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Serial</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Caixa</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>14/08/2024</v>
+        <v>001650216</v>
       </c>
       <c r="B2" t="str">
-        <v>Thiago</v>
+        <v>MARK4048</v>
       </c>
       <c r="C2" t="str">
-        <v>correios-1408</v>
-      </c>
-      <c r="D2" t="str">
-        <v>0387-0269-9</v>
-      </c>
-      <c r="E2" t="str">
-        <v>882007147378</v>
-      </c>
-      <c r="F2">
+        <v>MARK4048 CASA INT GLORIFER NEST MN LLPP</v>
+      </c>
+      <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>30092402</v>
+      </c>
+      <c r="G2" t="str">
+        <v>conferido</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Eduardo</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>001641058</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0155-0008-0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>CABO ETH AMARELO C/CONECTOR RJ45</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="str">
+        <v>8755051117</v>
+      </c>
+      <c r="G3" t="str">
+        <v>conferido</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Eduardo</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>